--- a/1.5.project_85_excel.xlsx
+++ b/1.5.project_85_excel.xlsx
@@ -8,7 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet3 (2)" sheetId="12" r:id="rId2"/>
+    <sheet name="lộ trình" sheetId="13" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$3:$I$12</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet3!$L$3:$M$5</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet3!$L$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet3 (2)'!$A$3:$I$12</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Sheet3 (2)'!$L$3:$M$5</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Sheet3 (2)'!$L$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>BAÛNG CÖÔÙC PHÍ VAÄN CHUYEÅN</t>
   </si>
@@ -64,30 +74,36 @@
     <t>THÖÔÛNG</t>
   </si>
   <si>
+    <t>GIÁ THÊM</t>
+  </si>
+  <si>
     <t>50-2923</t>
   </si>
   <si>
     <t>PLEIKU</t>
   </si>
   <si>
+    <t>HAØ NOÄI</t>
+  </si>
+  <si>
+    <t>&gt;=5</t>
+  </si>
+  <si>
     <t>52-1988</t>
   </si>
   <si>
     <t>QUI NHÔN</t>
   </si>
   <si>
+    <t>NHA TRANG</t>
+  </si>
+  <si>
     <t>50-1234</t>
   </si>
   <si>
-    <t>NHA TRANG</t>
-  </si>
-  <si>
     <t>50-2989</t>
   </si>
   <si>
-    <t>HAØ NOÄI</t>
-  </si>
-  <si>
     <t>51-7939</t>
   </si>
   <si>
@@ -143,6 +159,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="VNI-Times"/>
+        <charset val="0"/>
+      </rPr>
       <t>2. Cöôùc phí =ñôn giaù* soá löôïng. N</t>
     </r>
     <r>
@@ -159,6 +181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="VNI-Times"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">3. </t>
     </r>
     <r>
@@ -184,6 +211,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="VNI-Times"/>
+        <charset val="0"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -216,6 +248,12 @@
   <si>
     <t>6.Cheøn coät giaù theâm:khi SL&gt;=5 thì laáy ñôn giaù theâm (baûng 3) ngöôïc laïi laáy ñôn giaù ôû baûng 1</t>
   </si>
+  <si>
+    <t>giá thêm</t>
+  </si>
+  <si>
+    <t>lộ trình</t>
+  </si>
 </sst>
 </file>
 
@@ -227,13 +265,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="VNI-Times"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -247,8 +291,26 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="VNI-Times"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
@@ -590,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -630,6 +692,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -751,167 +826,186 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1242,11 +1336,1800 @@
     <col min="3" max="3" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="12.4285714285714" customWidth="1"/>
+    <col min="17" max="19" width="10.8571428571429"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10">
+        <f>VLOOKUP(C4,$A$17:$C$22,2,0)</f>
+        <v>10000</v>
+      </c>
+      <c r="E4" s="10">
+        <f>D4*B4+IF(B4&lt;VLOOKUP(VALUE(LEFT(A4,2)),$F$17:$G$19,2,0),B4*D4*5%,0)</f>
+        <v>50000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>35916</v>
+      </c>
+      <c r="G4" s="11">
+        <v>35918</v>
+      </c>
+      <c r="H4" s="10">
+        <f>IF(G4-F4=0,1,G4-F4)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="10">
+        <f>IF(H4&lt;VLOOKUP(C4,$A$17:$C$22,3,0),B4*D4*5%,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="J4" s="22">
+        <f>IF(B4&gt;=5,HLOOKUP(VALUE(LEFT(A4,2)),$F$22:$H$23,2,0),VLOOKUP(C4,$A$17:$C$22,2,0))</f>
+        <v>500</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" ref="D5:D12" si="0">VLOOKUP(C5,$A$17:$C$22,2,0)</f>
+        <v>5000</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E12" si="1">D5*B5+IF(B5&lt;VLOOKUP(VALUE(LEFT(A5,2)),$F$17:$G$19,2,0),B5*D5*5%,0)</f>
+        <v>52500</v>
+      </c>
+      <c r="F5" s="11">
+        <v>35919</v>
+      </c>
+      <c r="G5" s="11">
+        <v>35919</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" ref="H5:H12" si="2">IF(G5-F5=0,1,G5-F5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5:I12" si="3">IF(H5&lt;VLOOKUP(C5,$A$17:$C$22,3,0),B5*D5*5%,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:J12" si="4">IF(B5&gt;=5,HLOOKUP(VALUE(LEFT(A5,2)),$F$22:$H$23,2,0),VLOOKUP(C5,$A$17:$C$22,2,0))</f>
+        <v>700</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="F6" s="11">
+        <v>35918</v>
+      </c>
+      <c r="G6" s="11">
+        <v>35920</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:20">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>18900</v>
+      </c>
+      <c r="F7" s="11">
+        <v>35920</v>
+      </c>
+      <c r="G7" s="11">
+        <v>35922</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="1:20">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+      <c r="F8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="G8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="8">
+        <v>6</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="10">
+        <v>4000</v>
+      </c>
+      <c r="P8" s="10">
+        <v>25200</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="R8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" ht="14" customHeight="1" spans="1:20">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>31500</v>
+      </c>
+      <c r="F9" s="11">
+        <v>35925</v>
+      </c>
+      <c r="G9" s="11">
+        <v>35931</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="10">
+        <v>6000</v>
+      </c>
+      <c r="P9" s="10">
+        <v>31500</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>35925</v>
+      </c>
+      <c r="R9" s="11">
+        <v>35931</v>
+      </c>
+      <c r="S9" s="10">
+        <v>6</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>35935</v>
+      </c>
+      <c r="G10" s="11">
+        <v>35942</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6000</v>
+      </c>
+      <c r="P10" s="10">
+        <v>30000</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>35936</v>
+      </c>
+      <c r="R10" s="11">
+        <v>35946</v>
+      </c>
+      <c r="S10" s="10">
+        <v>10</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="F11" s="11">
+        <v>35936</v>
+      </c>
+      <c r="G11" s="11">
+        <v>35946</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="F12" s="11">
+        <v>35937</v>
+      </c>
+      <c r="G12" s="11">
+        <v>35941</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8">
+        <v>51</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8">
+        <v>12</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>25000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8">
+        <v>51</v>
+      </c>
+      <c r="H22" s="8">
+        <v>52</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="14">
+        <v>500</v>
+      </c>
+      <c r="G23" s="14">
+        <v>600</v>
+      </c>
+      <c r="H23" s="14">
+        <v>700</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" ht="18" spans="1:9">
+      <c r="A24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12" t="str">
+        <f>LOWER("DÖÏA VAØO LOÄ TRÌNH TRA TRONG BAÛNG 1 LAÁY GIAÙ TRÒ TÖÔNG ÖÙNG")</f>
+        <v>döïa vaøo loä trình tra trong baûng 1 laáy giaù trò töông öùng</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" ht="18" spans="1:9">
+      <c r="A26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" ht="18" spans="1:9">
+      <c r="A28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" ht="18" spans="1:9">
+      <c r="A30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="12.4285714285714" customWidth="1"/>
+    <col min="17" max="18" width="10.8571428571429"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D12" si="0">VLOOKUP(C4,$A$17:$C$22,2,0)</f>
+        <v>10000</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E12" si="1">B4*D4+IF(B4&lt;VLOOKUP(VALUE(LEFT(A4,2)),$F$17:$G$19,2,0),B4*D4*5%,0)</f>
+        <v>50000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>35916</v>
+      </c>
+      <c r="G4" s="11">
+        <v>35918</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H12" si="2">G4-F4+IF(G4=F4,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I12" si="3">IF(H4&lt;VLOOKUP(C4,$A$17:$C$22,3,0),E4*5%,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J12" si="4">IF(B4&gt;=5,HLOOKUP(VALUE(LEFT(A4,2)),$F$22:$H$23,2,0),VLOOKUP(C4,$A$17:$C$22,2,0))</f>
+        <v>500</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+      <c r="F5" s="11">
+        <v>35919</v>
+      </c>
+      <c r="G5" s="11">
+        <v>35919</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="3"/>
+        <v>2625</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="F6" s="11">
+        <v>35918</v>
+      </c>
+      <c r="G6" s="11">
+        <v>35920</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:20">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>18900</v>
+      </c>
+      <c r="F7" s="11">
+        <v>35920</v>
+      </c>
+      <c r="G7" s="11">
+        <v>35922</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="3"/>
+        <v>945</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+      <c r="F8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="G8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="20">
+        <v>6</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="8">
+        <v>4000</v>
+      </c>
+      <c r="P8" s="8">
+        <v>25200</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="R8" s="11">
+        <v>35921</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>31500</v>
+      </c>
+      <c r="F9" s="11">
+        <v>35925</v>
+      </c>
+      <c r="G9" s="11">
+        <v>35931</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="20">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="8">
+        <v>6000</v>
+      </c>
+      <c r="P9" s="8">
+        <v>31500</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>35925</v>
+      </c>
+      <c r="R9" s="11">
+        <v>35931</v>
+      </c>
+      <c r="S9" s="8">
+        <v>6</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>35935</v>
+      </c>
+      <c r="G10" s="11">
+        <v>35942</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="20">
+        <v>5</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="8">
+        <v>6000</v>
+      </c>
+      <c r="P10" s="8">
+        <v>30000</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>35936</v>
+      </c>
+      <c r="R10" s="11">
+        <v>35946</v>
+      </c>
+      <c r="S10" s="8">
+        <v>10</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="F11" s="11">
+        <v>35936</v>
+      </c>
+      <c r="G11" s="11">
+        <v>35946</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="F12" s="11">
+        <v>35937</v>
+      </c>
+      <c r="G12" s="11">
+        <v>35941</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>3150</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8">
+        <v>51</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8">
+        <v>12</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>25000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8">
+        <v>51</v>
+      </c>
+      <c r="H22" s="8">
+        <v>52</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="14">
+        <v>500</v>
+      </c>
+      <c r="G23" s="14">
+        <v>600</v>
+      </c>
+      <c r="H23" s="14">
+        <v>700</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" ht="18" spans="1:9">
+      <c r="A24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12" t="str">
+        <f>LOWER("DÖÏA VAØO LOÄ TRÌNH TRA TRONG BAÛNG 1 LAÁY GIAÙ TRÒ TÖÔNG ÖÙNG")</f>
+        <v>döïa vaøo loä trình tra trong baûng 1 laáy giaù trò töông öùng</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" ht="18" spans="1:9">
+      <c r="A26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" ht="18" spans="1:9">
+      <c r="A28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" ht="18" spans="1:9">
+      <c r="A30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="11.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1257,587 +3140,125 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:9">
-      <c r="A3" s="3" t="s">
+    <row r="2" ht="15.75" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+    <row r="3" ht="15.75" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F3" s="3">
+        <v>35921</v>
+      </c>
+      <c r="G3" s="3">
+        <v>35921</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>35925</v>
+      </c>
+      <c r="G4" s="3">
+        <v>35931</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>35936</v>
+      </c>
+      <c r="G5" s="3">
+        <v>35946</v>
+      </c>
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7">
-        <v>35916</v>
-      </c>
-      <c r="G4" s="7">
-        <v>35918</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7">
-        <v>35919</v>
-      </c>
-      <c r="G5" s="7">
-        <v>35919</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7">
-        <v>35918</v>
-      </c>
-      <c r="G6" s="7">
-        <v>35920</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7">
-        <v>35920</v>
-      </c>
-      <c r="G7" s="7">
-        <v>35922</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7">
-        <v>35921</v>
-      </c>
-      <c r="G8" s="7">
-        <v>35921</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7">
-        <v>35925</v>
-      </c>
-      <c r="G9" s="7">
-        <v>35931</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7">
-        <v>35935</v>
-      </c>
-      <c r="G10" s="7">
-        <v>35942</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7">
-        <v>35936</v>
-      </c>
-      <c r="G11" s="7">
-        <v>35946</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7">
-        <v>35937</v>
-      </c>
-      <c r="G12" s="7">
-        <v>35941</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5">
-        <v>4</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5">
-        <v>51</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5">
-        <v>52</v>
-      </c>
-      <c r="G19" s="5">
-        <v>12</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5">
-        <v>20000</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>50</v>
-      </c>
-      <c r="G22" s="5">
-        <v>51</v>
-      </c>
-      <c r="H22" s="5">
-        <v>52</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="11">
-        <v>500</v>
-      </c>
-      <c r="G23" s="11">
-        <v>600</v>
-      </c>
-      <c r="H23" s="11">
-        <v>700</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" ht="18" spans="1:9">
-      <c r="A24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="str">
-        <f>LOWER("DÖÏA VAØO LOÄ TRÌNH TRA TRONG BAÛNG 1 LAÁY GIAÙ TRÒ TÖÔNG ÖÙNG")</f>
-        <v>döïa vaøo loä trình tra trong baûng 1 laáy giaù trò töông öùng</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" ht="18" spans="1:9">
-      <c r="A26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" ht="18" spans="1:9">
-      <c r="A28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" ht="18" spans="1:9">
-      <c r="A30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
